--- a/Divisor.xlsx
+++ b/Divisor.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\AppData\Local\Programs\Python\Python312\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B7E951-B0F8-4040-84D0-6B99F8B65269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9691E54-D9DE-46F5-B180-590A6444ED9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{48D8BD5F-AA7A-4B8E-8A7E-ACBEB31D5797}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{48D8BD5F-AA7A-4B8E-8A7E-ACBEB31D5797}"/>
   </bookViews>
   <sheets>
-    <sheet name="Base" sheetId="47" r:id="rId1"/>
-    <sheet name="Resultado 1" sheetId="33" r:id="rId2"/>
+    <sheet name="Resultado 1" sheetId="33" r:id="rId1"/>
+    <sheet name="Base" sheetId="77" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -469,16 +469,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="122">
-  <si>
-    <t>PREVIOUS WEEK       INDEX       NEXT WEEK</t>
-  </si>
-  <si>
-    <t>One Of The Girls - The Weeknd | Jennie | Lily Rose Depp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
     <r>
-      <t>Paint The Town Red - Doja Cat </t>
+      <t>Si Antes Te Hubiera Conocido - Karol G </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Good Luck, Babe! - Chappell Roan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lose Control - Teddy Swims </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>Pink Pony Club - Chappell Roan</t>
+  </si>
+  <si>
+    <t>DtMF - Bad Bunny </t>
+  </si>
+  <si>
+    <r>
+      <t>A Bar Song (Tipsy) - Shaboozey </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>Sports Car - Tate McRae</t>
+  </si>
+  <si>
+    <r>
+      <t>Who - Jimin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Nokia - Drake</t>
+  </si>
+  <si>
+    <r>
+      <t>Not Like Us - Kendrick Lamar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>week 2</t>
+  </si>
+  <si>
+    <t>Messy - Lola Young </t>
+  </si>
+  <si>
+    <t>Anxiety - Doechii</t>
+  </si>
+  <si>
+    <t>Like Jennie - Jennie</t>
+  </si>
+  <si>
+    <t>Ordinary - Alex Warren</t>
+  </si>
+  <si>
+    <t>La Plena (W Sound 05) - W Sound | Beéle | Ovy On The Drums</t>
+  </si>
+  <si>
+    <t>Baile Inolvidable - Bad Bunny </t>
+  </si>
+  <si>
+    <r>
+      <t>Wildflower - Billie Eilish </t>
     </r>
     <r>
       <rPr>
@@ -491,11 +602,76 @@
     </r>
   </si>
   <si>
-    <t>Qlona - Karol G feat. Peso Pluma </t>
-  </si>
-  <si>
     <r>
-      <t>Seven - Jung Kook feat. Latto </t>
+      <t>Too Sweet - Hozier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Luther - Kendrick Lamar feat. SZA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Timeless - The Weeknd feat. Playboi Carti </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Azizam - Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Show Me Love - WizTheMc feat. Bees &amp; Honey</t>
+  </si>
+  <si>
+    <r>
+      <t>Apt. - Rosé &amp; Bruno Mars </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>Abracadabra - Lady GaGa </t>
+  </si>
+  <si>
+    <t>week 8</t>
+  </si>
+  <si>
+    <r>
+      <t>Taste - Sabrina Carpenter </t>
     </r>
     <r>
       <rPr>
@@ -508,38 +684,28 @@
     </r>
   </si>
   <si>
-    <t>week 12</t>
-  </si>
-  <si>
-    <t>Standing Next To You - Jung Kook</t>
-  </si>
-  <si>
-    <t>week 11</t>
-  </si>
-  <si>
-    <t>Lovin On Me - Jack Harlow</t>
-  </si>
-  <si>
-    <t>Houdini - Dua Lipa</t>
-  </si>
-  <si>
-    <t>week 10</t>
-  </si>
-  <si>
-    <t>My Love Mine All Mine - Mitski</t>
-  </si>
-  <si>
-    <t>Greedy - Tate McRae </t>
-  </si>
-  <si>
-    <t>Water - Tyla</t>
-  </si>
-  <si>
-    <t>week 7</t>
+    <t>Passo Bem Solto (Slowed) - Atlxs</t>
+  </si>
+  <si>
+    <t>week 3</t>
   </si>
   <si>
     <r>
-      <t>Cruel Summer - Taylor Swift </t>
+      <t>Birds Of A Feather - Billie Eilish </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sailor Song - Gigi Perez </t>
     </r>
     <r>
       <rPr>
@@ -552,11 +718,125 @@
     </r>
   </si>
   <si>
+    <t>week 9</t>
+  </si>
+  <si>
+    <t>Bad Dreams - Teddy Swims </t>
+  </si>
+  <si>
+    <t>week 4</t>
+  </si>
+  <si>
+    <t>Back To Friends - Sombr</t>
+  </si>
+  <si>
+    <r>
+      <t>Beautiful Things - Benson Boone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>week 38</t>
+  </si>
+  <si>
+    <t>week 19</t>
+  </si>
+  <si>
+    <t>week 10</t>
+  </si>
+  <si>
+    <t>Love Me Not - Ravyn Lenae</t>
+  </si>
+  <si>
+    <t>week 5</t>
+  </si>
+  <si>
+    <t>week 29</t>
+  </si>
+  <si>
+    <t>Night Street Records / Warner - 138.000</t>
+  </si>
+  <si>
+    <t>Warner Music Latina - 137.000</t>
+  </si>
+  <si>
+    <t>week 56</t>
+  </si>
+  <si>
+    <r>
+      <t>Espresso - Sabrina Carpenter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>17 / 18</t>
+  </si>
+  <si>
+    <t>16 / 15</t>
+  </si>
+  <si>
+    <t>week 33</t>
+  </si>
+  <si>
+    <t>week 39</t>
+  </si>
+  <si>
+    <t>Interscope - 103.000</t>
+  </si>
+  <si>
+    <t>week 20</t>
+  </si>
+  <si>
+    <t>Undressed - Sombr</t>
+  </si>
+  <si>
+    <t>38 / -</t>
+  </si>
+  <si>
+    <t>RCA - 91.000</t>
+  </si>
+  <si>
+    <t>- / -</t>
+  </si>
+  <si>
+    <r>
+      <t>Stargazing - Myles Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
     <t>week 6</t>
   </si>
   <si>
+    <t>PREVIOUS WEEK       INDEX       NEXT WEEK</t>
+  </si>
+  <si>
     <r>
-      <t>All I Want For Christmas Is You - Mariah Carey </t>
+      <t>Die With A Smile - Lady GaGa &amp; Bruno Mars </t>
     </r>
     <r>
       <rPr>
@@ -569,8 +849,32 @@
     </r>
   </si>
   <si>
+    <t>Interscope - 288.000 - 15 weeks at No.1</t>
+  </si>
+  <si>
+    <t>Atlantic - 263.000</t>
+  </si>
+  <si>
+    <t>week 30</t>
+  </si>
+  <si>
+    <t>Black Label / Atlantic - 261.000</t>
+  </si>
+  <si>
+    <t>week 52</t>
+  </si>
+  <si>
+    <t>Darkroom / Interscope - 210.000</t>
+  </si>
+  <si>
+    <t>Island - 173.000</t>
+  </si>
+  <si>
+    <t>Top Dawg / Capitol - 172.000</t>
+  </si>
+  <si>
     <r>
-      <t>Last Christmas - Wham! </t>
+      <t>That's So True - Gracie Abrams </t>
     </r>
     <r>
       <rPr>
@@ -579,221 +883,113 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
+      <t>3</t>
     </r>
   </si>
   <si>
-    <t>Jingle Bell Rock - Bobby Helms </t>
-  </si>
-  <si>
-    <t>Santa Tell Me - Ariana Grande </t>
-  </si>
-  <si>
-    <t>It's Beginning To Look A Lot Like Christmas - Michael Bublé </t>
-  </si>
-  <si>
-    <t>It's The Most Wonderful Time Of The Year - Andy Williams </t>
-  </si>
-  <si>
-    <t>Let It Snow! Let It Snow! Let It Snow! - Dean Martin</t>
-  </si>
-  <si>
-    <t>Snowman - Sia</t>
-  </si>
-  <si>
-    <t>Underneath The Tree - Kelly Clarkson</t>
-  </si>
-  <si>
-    <t>Sleigh Ride - Ronettes</t>
-  </si>
-  <si>
-    <t>Holly Jolly Christmas - Michael Bublé</t>
-  </si>
-  <si>
-    <t>Mistletoe - Justin Bieber</t>
-  </si>
-  <si>
-    <t>week 21</t>
-  </si>
-  <si>
-    <t>week 5</t>
-  </si>
-  <si>
-    <t>week 4</t>
-  </si>
-  <si>
-    <t>week 14</t>
-  </si>
-  <si>
-    <t>Rockin' Around The Christmas Tree - Brenda Lee </t>
-  </si>
-  <si>
-    <t>week 20</t>
-  </si>
-  <si>
-    <t>Feliz Navidad - José Feliciano</t>
-  </si>
-  <si>
-    <t>Si No Estás - Iñigo Quintero</t>
+    <t>Interscope - 167.000</t>
+  </si>
+  <si>
+    <t>week 15</t>
+  </si>
+  <si>
+    <t>Interscope - 163.000</t>
+  </si>
+  <si>
+    <t>Gingerbread Man / Warner - 158.000</t>
+  </si>
+  <si>
+    <t>Odd Atelier / Columbia - 152.000</t>
+  </si>
+  <si>
+    <t>week 25</t>
+  </si>
+  <si>
+    <t>Interscope - 146.000</t>
+  </si>
+  <si>
+    <t>week 69</t>
   </si>
   <si>
     <r>
-      <t>Flowers - Miley Cyrus </t>
+      <t>Rimas Entertainment - 135.000 </t>
     </r>
     <r>
       <rPr>
-        <sz val="7.5"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>6</t>
+      <t>Largest Points Increase</t>
     </r>
   </si>
   <si>
-    <t>Perro Negro - Bad Bunny feat. Feid</t>
-  </si>
-  <si>
-    <t>week 9</t>
-  </si>
-  <si>
-    <t>Agora Hills - Doja Cat</t>
-  </si>
-  <si>
-    <t>Según Quién - Maluma &amp; Carín León</t>
-  </si>
-  <si>
-    <t>Harley Quinn - Fuerza Regida feat. Marshmello</t>
-  </si>
-  <si>
-    <t>Que Onda - Calle 24 | Chino Pacas | Fuerza Regida</t>
-  </si>
-  <si>
-    <t>week 19</t>
-  </si>
-  <si>
-    <t>18 / -</t>
-  </si>
-  <si>
-    <t>Strangers - Kenya Grace</t>
-  </si>
-  <si>
-    <t>Reprise - 124.000</t>
-  </si>
-  <si>
-    <t>23 / 22</t>
-  </si>
-  <si>
-    <t>week 8</t>
-  </si>
-  <si>
-    <t>3D - Jung Kook feat. Jack Harlow</t>
-  </si>
-  <si>
-    <t>Arjan Vailly - Manan Bhardwaj &amp; Bhupinder Babbal</t>
-  </si>
-  <si>
-    <t>Is It Over Now? - Taylor Swift</t>
-  </si>
-  <si>
-    <t>Perfect Night - Le Sserafim</t>
-  </si>
-  <si>
-    <t>week 93</t>
-  </si>
-  <si>
-    <t>Columbia - 304.000 - 11 weeks at No.1 - Largest Points Increase</t>
-  </si>
-  <si>
-    <t>week 65</t>
-  </si>
-  <si>
-    <t>Epic - 256.000</t>
-  </si>
-  <si>
-    <t>RCA - 235.000</t>
-  </si>
-  <si>
-    <t>week 25</t>
-  </si>
-  <si>
-    <t>Republic - 208.000</t>
-  </si>
-  <si>
-    <t>13 / -</t>
-  </si>
-  <si>
-    <t>Decca - 197.000</t>
-  </si>
-  <si>
-    <t>Generation Now / Atlantic - 168.000</t>
-  </si>
-  <si>
-    <t>Warner - 168.000</t>
-  </si>
-  <si>
-    <t>Big Hit Entertainment - 167.000</t>
-  </si>
-  <si>
-    <t>week 23</t>
-  </si>
-  <si>
-    <t>Decca - 166.000</t>
-  </si>
-  <si>
-    <t>week 18</t>
-  </si>
-  <si>
-    <t>Kemosabe / RCA - 165.000</t>
-  </si>
-  <si>
-    <t>30 / -</t>
-  </si>
-  <si>
-    <t>Republic - 154.000</t>
-  </si>
-  <si>
-    <t>29 / -</t>
-  </si>
-  <si>
-    <t>Reprise - 145.000</t>
-  </si>
-  <si>
-    <t>Big Hit Entertainment - 143.000</t>
-  </si>
-  <si>
-    <t>Acqustic - 139.000</t>
-  </si>
-  <si>
-    <t>Fax Records / Epic - 139.000</t>
-  </si>
-  <si>
-    <t>Dead Oceans - 137.000</t>
-  </si>
-  <si>
-    <t>32 / -</t>
-  </si>
-  <si>
-    <t>Columbia - 134.000</t>
-  </si>
-  <si>
-    <t>- / -</t>
-  </si>
-  <si>
-    <t>Monkey Puzzle / Atlantic - 134.000</t>
-  </si>
-  <si>
-    <t>Major Recordings / Warner - 133.000</t>
-  </si>
-  <si>
-    <t>RCA - 128.000</t>
-  </si>
-  <si>
-    <t>You're Losing Me - Taylor Swift</t>
+    <t>14 / 13</t>
+  </si>
+  <si>
+    <t>week 57</t>
+  </si>
+  <si>
+    <t>Island - 127.000</t>
+  </si>
+  <si>
+    <t>15 / 25</t>
+  </si>
+  <si>
+    <t>Bamboo Artists - 125.000</t>
+  </si>
+  <si>
+    <t>Darkroom / Interscope - 123.000</t>
+  </si>
+  <si>
+    <t>24 / 31</t>
+  </si>
+  <si>
+    <t>Rimas Entertainment - 119.000</t>
+  </si>
+  <si>
+    <t>18 / 17</t>
+  </si>
+  <si>
+    <t>Atlantic / Island - 116.000</t>
+  </si>
+  <si>
+    <t>27 / -</t>
+  </si>
+  <si>
+    <t>Warner - 110.000</t>
+  </si>
+  <si>
+    <t>25 / 34</t>
+  </si>
+  <si>
+    <t>Warner - 109.000</t>
+  </si>
+  <si>
+    <t>Mangu - Fourtwnty feat. Charita Utami</t>
   </si>
   <si>
     <r>
-      <t>Republic - 118.000 - </t>
+      <t>Fourtwnty Music Indonesia - 107.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> - </t>
     </r>
     <r>
       <rPr>
@@ -806,123 +1002,127 @@
     </r>
   </si>
   <si>
-    <t>22 / 21</t>
-  </si>
-  <si>
-    <t>week 16</t>
-  </si>
-  <si>
-    <t>Bichota / Interscope - 112.000</t>
-  </si>
-  <si>
-    <t>RCA - 111.000</t>
-  </si>
-  <si>
-    <t>28 / 24</t>
+    <t>19 / 20</t>
+  </si>
+  <si>
+    <t>week 71</t>
+  </si>
+  <si>
+    <t>Warner Records - 105.000</t>
+  </si>
+  <si>
+    <t>22 / 22</t>
+  </si>
+  <si>
+    <t>week 21</t>
+  </si>
+  <si>
+    <t>Warner Records - 104.000</t>
+  </si>
+  <si>
+    <t>20 / 16</t>
+  </si>
+  <si>
+    <t>week 34</t>
+  </si>
+  <si>
+    <t>29 / 26</t>
+  </si>
+  <si>
+    <t>XO Recordings / Republic - 100.000</t>
+  </si>
+  <si>
+    <t>26 / 23</t>
+  </si>
+  <si>
+    <t>week 12</t>
+  </si>
+  <si>
+    <t>OVO Sound / Republic - 99.000</t>
+  </si>
+  <si>
+    <t>21 / 21</t>
+  </si>
+  <si>
+    <t>week 40</t>
+  </si>
+  <si>
+    <t>Interscope - 99.000</t>
+  </si>
+  <si>
+    <t>28 / 27</t>
+  </si>
+  <si>
+    <t>Empire / Republic - 98.000</t>
+  </si>
+  <si>
+    <t>30 / 38</t>
+  </si>
+  <si>
+    <t>Atlantic - 96.000</t>
+  </si>
+  <si>
+    <t>23 / 29</t>
+  </si>
+  <si>
+    <t>Atlxs - 96.000</t>
+  </si>
+  <si>
+    <t>31 / 32</t>
   </si>
   <si>
     <t>week 47</t>
   </si>
   <si>
-    <t>Smiley Miley, Inc. / Columbia - 111.000</t>
-  </si>
-  <si>
-    <t>15 / 15</t>
-  </si>
-  <si>
-    <t>Rimas Entertainment - 110.000</t>
-  </si>
-  <si>
-    <t>21 / 16</t>
-  </si>
-  <si>
-    <t>Vampire - Olivia Rodrigo </t>
-  </si>
-  <si>
-    <t>Geffen - 109.000</t>
-  </si>
-  <si>
-    <t>Sony Music Latin - 107.000</t>
-  </si>
-  <si>
-    <t>17 / 19</t>
-  </si>
-  <si>
-    <t>Kemosabe / RCA - 103.000</t>
-  </si>
-  <si>
-    <t>16 / 13</t>
-  </si>
-  <si>
-    <t>Republic - 102.000</t>
-  </si>
-  <si>
-    <t>19 / 18</t>
-  </si>
-  <si>
-    <t>Rancho Humilde / Street Mob Records - 101.000</t>
-  </si>
-  <si>
-    <t>24 / 23</t>
-  </si>
-  <si>
-    <t>Big Hit Entertainment - 100.000</t>
-  </si>
-  <si>
-    <t>week 3</t>
-  </si>
-  <si>
-    <t>Reprise - 99.000</t>
-  </si>
-  <si>
-    <t>T-Series India - 98.000</t>
-  </si>
-  <si>
-    <t>20 / 14</t>
-  </si>
-  <si>
-    <t>week 28</t>
-  </si>
-  <si>
-    <r>
-      <t>Dance The Night - Dua Lipa </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Atlantic / Warner - 98.000</t>
-  </si>
-  <si>
-    <t>Sony Records - 96.000</t>
-  </si>
-  <si>
-    <t>37 / 39</t>
-  </si>
-  <si>
-    <t>XO Recordings / Republic - 95.000</t>
-  </si>
-  <si>
-    <t>27 / 26</t>
-  </si>
-  <si>
-    <t>Source Music - 94.000</t>
-  </si>
-  <si>
-    <t>25 / 27</t>
-  </si>
-  <si>
-    <t>Street Mob Records / Rancho Humilde - 94.000</t>
-  </si>
-  <si>
-    <t>Island - 94.000</t>
+    <t>Bichota Records / Interscope - 94.000</t>
+  </si>
+  <si>
+    <t>West Side Soul! - West.</t>
+  </si>
+  <si>
+    <t>Elov Label Japan - 93.000</t>
+  </si>
+  <si>
+    <t>33 / 30</t>
+  </si>
+  <si>
+    <t>RCA - 87.000</t>
+  </si>
+  <si>
+    <t>Eoo - Bad Bunny</t>
+  </si>
+  <si>
+    <t>Rimas Entertainment - 87.000</t>
+  </si>
+  <si>
+    <t>34 / 36</t>
+  </si>
+  <si>
+    <t>Rubyworks / Island / Columbia - 87.000</t>
+  </si>
+  <si>
+    <t>35 / 33</t>
+  </si>
+  <si>
+    <t>week 50</t>
+  </si>
+  <si>
+    <t>Amusement Records / Island - 85.000</t>
+  </si>
+  <si>
+    <t>36 / 37</t>
+  </si>
+  <si>
+    <t>week 43</t>
+  </si>
+  <si>
+    <t>Big Hit Entertainment - 83.000</t>
+  </si>
+  <si>
+    <t>37 / 35</t>
+  </si>
+  <si>
+    <t>Island - 82.000</t>
   </si>
 </sst>
 </file>
@@ -957,6 +1157,19 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -979,19 +1192,6 @@
       <b/>
       <sz val="7.5"/>
       <color rgb="FF008080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1056,43 +1256,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1332,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F11C95E-168F-0CF5-84D0-CD0253C7458D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F420524A-963B-6966-53F6-25DBAE695D26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,13 +1379,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1193,7 +1393,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB571CE-FFFC-A629-3C96-BBAB1B9DF445}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54E26B0-A2DA-74BA-8FF5-8018DCDAF281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1216,7 +1416,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="2522220"/>
+          <a:off x="1219200" y="2697480"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1240,13 +1440,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1254,7 +1454,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0BDE50-19EC-B70C-8817-42EEBB2827FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AD7AE8-5F91-212D-91E3-0BC8B143B626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1477,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="3535680"/>
+          <a:off x="1219200" y="4046220"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1301,13 +1501,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1315,7 +1515,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322413D8-B0F1-794C-81BC-5CFC3F15076E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F025FA-1425-0A36-28BC-732DFFBAE169}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1538,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="4381500"/>
+          <a:off x="1219200" y="5730240"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1362,13 +1562,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1376,7 +1576,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC7A711-A8B2-4C30-C438-90EE4DDBE6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14018550-E944-4C33-45B9-EF648BF6CA5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1599,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="5394960"/>
+          <a:off x="1219200" y="7589520"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1437,7 +1637,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0FB64B-9E02-5B05-B495-EA656B47DC8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC248F06-170F-A03D-9D44-325A16F3E73B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1660,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="8938260"/>
+          <a:off x="1219200" y="8900160"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1484,13 +1684,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1498,7 +1698,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC0BC71-CB7F-5469-75C9-FB8DDF88FAB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0BE882-26AB-C117-F8A2-DE91D4DE43F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1721,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="10454640"/>
+          <a:off x="1219200" y="12443460"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1545,13 +1745,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1559,7 +1759,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F0EC14-6EE7-791F-9B69-2289DD6A48DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D66CBC-A3A4-A996-D3FD-10CA36B1D052}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1782,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="11635740"/>
+          <a:off x="1219200" y="13792200"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1606,13 +1806,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1620,7 +1820,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E91810-E744-331B-2252-3440E6528A39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9193FF-842B-D5A9-31BF-818A0FDC9F17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1843,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="13152120"/>
+          <a:off x="1219200" y="17495520"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1667,13 +1867,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1681,7 +1881,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E407481F-9B0A-A018-08D2-B65C57C865D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60F5E37-5B79-E276-6643-79A0F84C54E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1704,7 +1904,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="14165580"/>
+          <a:off x="1219200" y="19179540"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1742,7 +1942,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0579F7DA-9B2E-16F4-407D-303CD7C934BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6402896C-31EB-E816-E607-1B6E584FF72E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1965,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="20741640"/>
+          <a:off x="1219200" y="21877020"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1789,13 +1989,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1803,7 +2003,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95743B3-D0A7-7AB3-E22F-044E6B8DD74A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0951BB1-E092-166A-02EA-B364E678F807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +2026,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="29337000"/>
+          <a:off x="1219200" y="23225760"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1850,13 +2050,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1864,7 +2064,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB310780-ACDA-DC69-0AF8-FD6AAE786C8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3485BF4-1E33-D3BB-0F6A-B8B71FD9F820}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +2087,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="31866840"/>
+          <a:off x="1219200" y="29634180"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1911,13 +2111,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1925,7 +2125,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C54274-CE29-D7C3-A1E9-5A17E5A9ECB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D18E09-3D74-FC00-59AA-833AC18068AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +2148,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="34899600"/>
+          <a:off x="1219200" y="30815280"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1972,13 +2172,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1986,7 +2186,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408A3DB0-9039-C030-165D-39F881A2F09B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E2A904-5E09-5080-EE87-922EE14B6867}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2209,556 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="46360080"/>
+          <a:off x="1219200" y="31996380"/>
+          <a:ext cx="137160" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6C39E8-08A9-F069-EE15-FAB1ED3C6B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="33177480"/>
+          <a:ext cx="137160" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C73107-BA08-E27C-E4AC-ACE95AC791A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="36042600"/>
+          <a:ext cx="137160" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C347D7D-29AE-D698-BAA4-CDECD78B4887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="37223700"/>
+          <a:ext cx="137160" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F77E08-4BE0-463C-4ABA-701B27AFC917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="40767000"/>
+          <a:ext cx="137160" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91862C0F-59D6-4713-FE58-6872ECDD243C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="44980860"/>
+          <a:ext cx="137160" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EEEAC8C-08DF-D65C-B837-9EBF9683C2B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="47175420"/>
+          <a:ext cx="137160" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453E7593-AEC0-FA2F-A648-DAFE533DC05D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="48524160"/>
+          <a:ext cx="137160" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C80960-C654-D180-706F-84ABEA69424B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="50208180"/>
+          <a:ext cx="137160" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F58DB8-62E8-70EE-2B9A-09C888B2C1DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="51221640"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2617,1033 +3366,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7D4C4-3699-4659-B999-17BBFC37C157}">
-  <dimension ref="A1:D82"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D82"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B1" s="8">
-        <v>45567</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B3" s="11">
-        <v>44013</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B5" s="10">
-        <v>45292</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B7" s="10">
-        <v>45325</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B11" s="10">
-        <v>45512</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B13" s="10">
-        <v>45479</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B15" s="10">
-        <v>45355</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="e" vm="11">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B19" s="10">
-        <v>45387</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
-      <c r="B24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="e" vm="14">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B25" s="10">
-        <v>45421</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15"/>
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="e" vm="15">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B27" s="10">
-        <v>45453</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="e" vm="16">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B29" s="10">
-        <v>45640</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="15"/>
-      <c r="B30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="e" vm="17">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B31" s="10">
-        <v>45608</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
-      <c r="B32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="e" vm="18">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="15"/>
-      <c r="B34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="e" vm="19">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
-      <c r="B36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="e" vm="20">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B37" s="10">
-        <v>45546</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="15"/>
-      <c r="B38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="e" vm="21">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
-      <c r="B40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="e" vm="22">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="15"/>
-      <c r="B42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="e" vm="23">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B43" s="14" t="e" vm="24">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="e" vm="25">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="15"/>
-      <c r="B46" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="e" vm="26">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="15"/>
-      <c r="B48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="e" vm="27">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="15"/>
-      <c r="B50" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="e" vm="28">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="15"/>
-      <c r="B52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="e" vm="29">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="14"/>
-    </row>
-    <row r="54" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="15"/>
-      <c r="B54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="e" vm="30">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="15"/>
-      <c r="B56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="e" vm="31">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="15"/>
-      <c r="B58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="e" vm="32">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="15"/>
-      <c r="B60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="15"/>
-    </row>
-    <row r="61" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="e" vm="33">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="14"/>
-    </row>
-    <row r="62" spans="1:4" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="15"/>
-      <c r="B62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D62" s="15"/>
-    </row>
-    <row r="63" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="e" vm="34">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="15"/>
-      <c r="B64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" s="15"/>
-    </row>
-    <row r="65" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="e" vm="35">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="15"/>
-      <c r="B66" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="15"/>
-    </row>
-    <row r="67" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="e" vm="36">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B67" s="14" t="e" vm="24">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D68" s="15"/>
-    </row>
-    <row r="69" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="e" vm="37">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" s="14"/>
-    </row>
-    <row r="70" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="15"/>
-      <c r="B70" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="15"/>
-    </row>
-    <row r="71" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="e" vm="38">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="15"/>
-      <c r="B72" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D72" s="15"/>
-    </row>
-    <row r="73" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="e" vm="39">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="15"/>
-      <c r="B74" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="15"/>
-    </row>
-    <row r="75" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="e" vm="40">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D75" s="14"/>
-    </row>
-    <row r="76" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="15"/>
-      <c r="B76" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76" s="15"/>
-    </row>
-    <row r="77" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="e" vm="41">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="14"/>
-    </row>
-    <row r="78" spans="1:4" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="15"/>
-      <c r="B78" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" s="15"/>
-    </row>
-    <row r="79" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="e" vm="42">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="14" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="15"/>
-      <c r="B80" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D80" s="15"/>
-    </row>
-    <row r="82" spans="1:1" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="D77:D78"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDAADBC-1C79-4A53-BCE6-EF9796D2B6C1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3653,4 +3375,1019 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786B156E-EC95-4319-A3DE-F9AF4B590BFF}">
+  <dimension ref="A1:D82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" s="6">
+        <v>45658</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="7">
+        <v>45719</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5" s="7">
+        <v>45690</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" s="7">
+        <v>45751</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45844</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45784</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45816</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B15" s="7">
+        <v>45905</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B17" s="12">
+        <v>41913</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B19" s="7">
+        <v>45878</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15"/>
+      <c r="B20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B21" s="7">
+        <v>45941</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B23" s="7">
+        <v>45973</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
+      <c r="B24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B25" s="7">
+        <v>46004</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="15"/>
+      <c r="B26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
+      <c r="B28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
+      <c r="B32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="15"/>
+      <c r="B34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
+      <c r="B36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15"/>
+      <c r="B38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="15"/>
+      <c r="B40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="15"/>
+      <c r="B42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B43" s="14" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="15"/>
+      <c r="B46" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="e" vm="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="15"/>
+      <c r="B48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="e" vm="27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="15"/>
+      <c r="B50" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="15"/>
+      <c r="B52" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="e" vm="29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="15"/>
+      <c r="B54" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="e" vm="30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="15"/>
+      <c r="B56" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="e" vm="31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="15"/>
+      <c r="B58" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="e" vm="32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="15"/>
+      <c r="B60" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="e" vm="33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="15"/>
+      <c r="B62" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="e" vm="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="15"/>
+      <c r="B64" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="e" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B65" s="14" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="15"/>
+    </row>
+    <row r="67" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="e" vm="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="15"/>
+      <c r="B68" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="15"/>
+    </row>
+    <row r="69" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="e" vm="37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="15"/>
+      <c r="B70" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="15"/>
+    </row>
+    <row r="71" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="e" vm="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="15"/>
+      <c r="B72" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="15"/>
+    </row>
+    <row r="73" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="e" vm="39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="15"/>
+      <c r="B74" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="15"/>
+    </row>
+    <row r="75" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A75" s="14" t="e" vm="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="15"/>
+      <c r="B76" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="15"/>
+    </row>
+    <row r="77" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="e" vm="41">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="15"/>
+      <c r="B78" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="15"/>
+    </row>
+    <row r="79" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="e" vm="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="15"/>
+      <c r="B80" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" s="15"/>
+    </row>
+    <row r="82" spans="1:1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="82">
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Divisor.xlsx
+++ b/Divisor.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\AppData\Local\Programs\Python\Python312\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9691E54-D9DE-46F5-B180-590A6444ED9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C2EC67-0811-4E36-997B-0B027AC743B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{48D8BD5F-AA7A-4B8E-8A7E-ACBEB31D5797}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado 1" sheetId="33" r:id="rId1"/>
-    <sheet name="Base" sheetId="77" r:id="rId2"/>
+    <sheet name="Base" sheetId="80" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
   <si>
     <r>
       <t>Si Antes Te Hubiera Conocido - Karol G </t>
@@ -486,40 +486,6 @@
   </si>
   <si>
     <r>
-      <t>Good Luck, Babe! - Chappell Roan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Lose Control - Teddy Swims </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>Pink Pony Club - Chappell Roan</t>
-  </si>
-  <si>
-    <t>DtMF - Bad Bunny </t>
-  </si>
-  <si>
-    <r>
       <t>A Bar Song (Tipsy) - Shaboozey </t>
     </r>
     <r>
@@ -550,36 +516,7 @@
     </r>
   </si>
   <si>
-    <t>Nokia - Drake</t>
-  </si>
-  <si>
-    <r>
-      <t>Not Like Us - Kendrick Lamar </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
     <t>week 2</t>
-  </si>
-  <si>
-    <t>Messy - Lola Young </t>
-  </si>
-  <si>
-    <t>Anxiety - Doechii</t>
-  </si>
-  <si>
-    <t>Like Jennie - Jennie</t>
-  </si>
-  <si>
-    <t>Ordinary - Alex Warren</t>
   </si>
   <si>
     <t>La Plena (W Sound 05) - W Sound | Beéle | Ovy On The Drums</t>
@@ -603,20 +540,6 @@
   </si>
   <si>
     <r>
-      <t>Too Sweet - Hozier </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Luther - Kendrick Lamar feat. SZA </t>
     </r>
     <r>
@@ -630,58 +553,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Timeless - The Weeknd feat. Playboi Carti </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>Azizam - Ed Sheeran</t>
   </si>
   <si>
     <t>Show Me Love - WizTheMc feat. Bees &amp; Honey</t>
   </si>
   <si>
-    <r>
-      <t>Apt. - Rosé &amp; Bruno Mars </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
     <t>Abracadabra - Lady GaGa </t>
-  </si>
-  <si>
-    <t>week 8</t>
-  </si>
-  <si>
-    <r>
-      <t>Taste - Sabrina Carpenter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
   </si>
   <si>
     <t>Passo Bem Solto (Slowed) - Atlxs</t>
@@ -718,9 +596,6 @@
     </r>
   </si>
   <si>
-    <t>week 9</t>
-  </si>
-  <si>
     <t>Bad Dreams - Teddy Swims </t>
   </si>
   <si>
@@ -744,31 +619,10 @@
     </r>
   </si>
   <si>
-    <t>week 38</t>
-  </si>
-  <si>
-    <t>week 19</t>
-  </si>
-  <si>
-    <t>week 10</t>
-  </si>
-  <si>
     <t>Love Me Not - Ravyn Lenae</t>
   </si>
   <si>
     <t>week 5</t>
-  </si>
-  <si>
-    <t>week 29</t>
-  </si>
-  <si>
-    <t>Night Street Records / Warner - 138.000</t>
-  </si>
-  <si>
-    <t>Warner Music Latina - 137.000</t>
-  </si>
-  <si>
-    <t>week 56</t>
   </si>
   <si>
     <r>
@@ -785,48 +639,7 @@
     </r>
   </si>
   <si>
-    <t>17 / 18</t>
-  </si>
-  <si>
-    <t>16 / 15</t>
-  </si>
-  <si>
-    <t>week 33</t>
-  </si>
-  <si>
-    <t>week 39</t>
-  </si>
-  <si>
-    <t>Interscope - 103.000</t>
-  </si>
-  <si>
-    <t>week 20</t>
-  </si>
-  <si>
     <t>Undressed - Sombr</t>
-  </si>
-  <si>
-    <t>38 / -</t>
-  </si>
-  <si>
-    <t>RCA - 91.000</t>
-  </si>
-  <si>
-    <t>- / -</t>
-  </si>
-  <si>
-    <r>
-      <t>Stargazing - Myles Smith </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
   </si>
   <si>
     <t>week 6</t>
@@ -849,30 +662,6 @@
     </r>
   </si>
   <si>
-    <t>Interscope - 288.000 - 15 weeks at No.1</t>
-  </si>
-  <si>
-    <t>Atlantic - 263.000</t>
-  </si>
-  <si>
-    <t>week 30</t>
-  </si>
-  <si>
-    <t>Black Label / Atlantic - 261.000</t>
-  </si>
-  <si>
-    <t>week 52</t>
-  </si>
-  <si>
-    <t>Darkroom / Interscope - 210.000</t>
-  </si>
-  <si>
-    <t>Island - 173.000</t>
-  </si>
-  <si>
-    <t>Top Dawg / Capitol - 172.000</t>
-  </si>
-  <si>
     <r>
       <t>That's So True - Gracie Abrams </t>
     </r>
@@ -887,32 +676,221 @@
     </r>
   </si>
   <si>
-    <t>Interscope - 167.000</t>
-  </si>
-  <si>
-    <t>week 15</t>
-  </si>
-  <si>
-    <t>Interscope - 163.000</t>
-  </si>
-  <si>
-    <t>Gingerbread Man / Warner - 158.000</t>
-  </si>
-  <si>
-    <t>Odd Atelier / Columbia - 152.000</t>
-  </si>
-  <si>
-    <t>week 25</t>
-  </si>
-  <si>
-    <t>Interscope - 146.000</t>
-  </si>
-  <si>
-    <t>week 69</t>
+    <t>Mangu - Fourtwnty feat. Charita Utami</t>
+  </si>
+  <si>
+    <t>Ordinary - Alex Warren </t>
+  </si>
+  <si>
+    <t>Anxiety - Doechii </t>
+  </si>
+  <si>
+    <t>week 7</t>
+  </si>
+  <si>
+    <t>Don't Say You Love Me - Jin</t>
+  </si>
+  <si>
+    <t>week 22</t>
   </si>
   <si>
     <r>
-      <t>Rimas Entertainment - 135.000 </t>
+      <t>Lose Control - Teddy Swims </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>What I Want - Morgan Wallen feat. Tate McRae</t>
+  </si>
+  <si>
+    <t>Shake It To The Max (Fly) - Moliy | Silent Addy | Skillibeng</t>
+  </si>
+  <si>
+    <t>week 41</t>
+  </si>
+  <si>
+    <t>week 12</t>
+  </si>
+  <si>
+    <t>week 32</t>
+  </si>
+  <si>
+    <t>week 8</t>
+  </si>
+  <si>
+    <t>Warner - 130.000</t>
+  </si>
+  <si>
+    <t>week 59</t>
+  </si>
+  <si>
+    <t>week 23</t>
+  </si>
+  <si>
+    <t>28 / 31</t>
+  </si>
+  <si>
+    <t>RCA - 92.000</t>
+  </si>
+  <si>
+    <t>Iris - Goo Goo Dolls</t>
+  </si>
+  <si>
+    <t>Reprise - 85.000</t>
+  </si>
+  <si>
+    <t>week 13</t>
+  </si>
+  <si>
+    <t>Atlantic - 287.000 - 2 weeks at No.1 - Largest Points Increase</t>
+  </si>
+  <si>
+    <t>week 42</t>
+  </si>
+  <si>
+    <t>Interscope - 253.000</t>
+  </si>
+  <si>
+    <t>week 33</t>
+  </si>
+  <si>
+    <r>
+      <t>Apt. - Rosé &amp; Bruno Mars </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>Black Label / Atlantic - 220.000</t>
+  </si>
+  <si>
+    <t>week 55</t>
+  </si>
+  <si>
+    <t>Darkroom / Interscope - 193.000</t>
+  </si>
+  <si>
+    <t>week 9</t>
+  </si>
+  <si>
+    <t>Gingerbread Man / Warner - 151.000</t>
+  </si>
+  <si>
+    <t>Big Hit Entertainment - 149.000</t>
+  </si>
+  <si>
+    <r>
+      <t>Messy - Lola Young </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Island - 143.000</t>
+  </si>
+  <si>
+    <t>15 / 19</t>
+  </si>
+  <si>
+    <t>Warner - 141.000</t>
+  </si>
+  <si>
+    <t>Top Dawg / Capitol - 141.000</t>
+  </si>
+  <si>
+    <t>Interscope - 136.000</t>
+  </si>
+  <si>
+    <t>week 18</t>
+  </si>
+  <si>
+    <t>Interscope - 133.000</t>
+  </si>
+  <si>
+    <t>17 / 22</t>
+  </si>
+  <si>
+    <t>Warner Music Latina - 127.000</t>
+  </si>
+  <si>
+    <t>week 28</t>
+  </si>
+  <si>
+    <t>Interscope - 126.000</t>
+  </si>
+  <si>
+    <t>16 / 13</t>
+  </si>
+  <si>
+    <t>week 72</t>
+  </si>
+  <si>
+    <t>Night Street Records / Warner - 124.000</t>
+  </si>
+  <si>
+    <t>18 / 16</t>
+  </si>
+  <si>
+    <t>week 60</t>
+  </si>
+  <si>
+    <t>Island - 117.000</t>
+  </si>
+  <si>
+    <t>21 / 21</t>
+  </si>
+  <si>
+    <t>Bamboo Artists - 115.000</t>
+  </si>
+  <si>
+    <t>Like Jennie - Jennie </t>
+  </si>
+  <si>
+    <t>Odd Atelier / Columbia - 115.000</t>
+  </si>
+  <si>
+    <t>22 / 36</t>
+  </si>
+  <si>
+    <t>Gamma - 115.000</t>
+  </si>
+  <si>
+    <t>Just Keep Watching - Tate McRae</t>
+  </si>
+  <si>
+    <r>
+      <t>RCA / Atlantic - 112.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -930,199 +908,151 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Largest Points Increase</t>
+      <t>Hot Shot Debut</t>
     </r>
   </si>
   <si>
-    <t>14 / 13</t>
-  </si>
-  <si>
-    <t>week 57</t>
-  </si>
-  <si>
-    <t>Island - 127.000</t>
-  </si>
-  <si>
-    <t>15 / 25</t>
-  </si>
-  <si>
-    <t>Bamboo Artists - 125.000</t>
-  </si>
-  <si>
-    <t>Darkroom / Interscope - 123.000</t>
-  </si>
-  <si>
-    <t>24 / 31</t>
-  </si>
-  <si>
-    <t>Rimas Entertainment - 119.000</t>
-  </si>
-  <si>
-    <t>18 / 17</t>
-  </si>
-  <si>
-    <t>Atlantic / Island - 116.000</t>
-  </si>
-  <si>
-    <t>27 / -</t>
-  </si>
-  <si>
-    <t>Warner - 110.000</t>
-  </si>
-  <si>
-    <t>25 / 34</t>
-  </si>
-  <si>
-    <t>Warner - 109.000</t>
-  </si>
-  <si>
-    <t>Mangu - Fourtwnty feat. Charita Utami</t>
+    <t>19 / 15</t>
+  </si>
+  <si>
+    <t>Darkroom / Interscope - 110.000</t>
+  </si>
+  <si>
+    <t>20 / 20</t>
+  </si>
+  <si>
+    <t>Pink Pony Club - Chappell Roan </t>
+  </si>
+  <si>
+    <t>Atlantic / Island - 105.000</t>
+  </si>
+  <si>
+    <t>23 / 17</t>
   </si>
   <si>
     <r>
-      <t>Fourtwnty Music Indonesia - 107.000</t>
+      <t>DtMF - Bad Bunny </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <sz val="7.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Hot Shot Debut</t>
+      <t>2</t>
     </r>
   </si>
   <si>
-    <t>19 / 20</t>
-  </si>
-  <si>
-    <t>week 71</t>
-  </si>
-  <si>
-    <t>Warner Records - 105.000</t>
-  </si>
-  <si>
-    <t>22 / 22</t>
-  </si>
-  <si>
-    <t>week 21</t>
-  </si>
-  <si>
-    <t>Warner Records - 104.000</t>
-  </si>
-  <si>
-    <t>20 / 16</t>
-  </si>
-  <si>
-    <t>week 34</t>
-  </si>
-  <si>
-    <t>29 / 26</t>
-  </si>
-  <si>
-    <t>XO Recordings / Republic - 100.000</t>
-  </si>
-  <si>
-    <t>26 / 23</t>
-  </si>
-  <si>
-    <t>week 12</t>
-  </si>
-  <si>
-    <t>OVO Sound / Republic - 99.000</t>
-  </si>
-  <si>
-    <t>21 / 21</t>
-  </si>
-  <si>
-    <t>week 40</t>
-  </si>
-  <si>
-    <t>Interscope - 99.000</t>
-  </si>
-  <si>
-    <t>28 / 27</t>
-  </si>
-  <si>
-    <t>Empire / Republic - 98.000</t>
-  </si>
-  <si>
-    <t>30 / 38</t>
-  </si>
-  <si>
-    <t>Atlantic - 96.000</t>
-  </si>
-  <si>
-    <t>23 / 29</t>
-  </si>
-  <si>
-    <t>Atlxs - 96.000</t>
-  </si>
-  <si>
-    <t>31 / 32</t>
-  </si>
-  <si>
-    <t>week 47</t>
-  </si>
-  <si>
-    <t>Bichota Records / Interscope - 94.000</t>
-  </si>
-  <si>
-    <t>West Side Soul! - West.</t>
-  </si>
-  <si>
-    <t>Elov Label Japan - 93.000</t>
-  </si>
-  <si>
-    <t>33 / 30</t>
-  </si>
-  <si>
-    <t>RCA - 87.000</t>
-  </si>
-  <si>
-    <t>Eoo - Bad Bunny</t>
-  </si>
-  <si>
-    <t>Rimas Entertainment - 87.000</t>
-  </si>
-  <si>
-    <t>34 / 36</t>
-  </si>
-  <si>
-    <t>Rubyworks / Island / Columbia - 87.000</t>
-  </si>
-  <si>
-    <t>35 / 33</t>
+    <t>Rimas Entertainment - 101.000</t>
+  </si>
+  <si>
+    <t>Atlantic - 101.000</t>
+  </si>
+  <si>
+    <t>25 / 25</t>
+  </si>
+  <si>
+    <t>week 74</t>
+  </si>
+  <si>
+    <t>Warner Records - 96.000</t>
+  </si>
+  <si>
+    <t>26 / 24</t>
+  </si>
+  <si>
+    <t>week 24</t>
+  </si>
+  <si>
+    <t>Warner Records - 95.000</t>
+  </si>
+  <si>
+    <t>24 / 18</t>
+  </si>
+  <si>
+    <t>Fourtwnty Music Indonesia - 95.000</t>
+  </si>
+  <si>
+    <t>Tu Sancho - Fuerza Regida</t>
+  </si>
+  <si>
+    <t>Rancho Humilde - 94.000</t>
+  </si>
+  <si>
+    <t>29 / 28</t>
+  </si>
+  <si>
+    <t>Atlxs - 94.000</t>
+  </si>
+  <si>
+    <t>31 / 40</t>
+  </si>
+  <si>
+    <t>week 46</t>
+  </si>
+  <si>
+    <t>Big Hit Entertainment - 92.000</t>
+  </si>
+  <si>
+    <t>27 / 30</t>
+  </si>
+  <si>
+    <t>Empire / Republic - 92.000</t>
+  </si>
+  <si>
+    <t>33 / 38</t>
+  </si>
+  <si>
+    <t>30 / 26</t>
+  </si>
+  <si>
+    <t>week 37</t>
+  </si>
+  <si>
+    <t>Interscope - 89.000</t>
+  </si>
+  <si>
+    <t>Encore - Hey! Say! Jump</t>
+  </si>
+  <si>
+    <t>Storm Labels Japan - 88.000</t>
+  </si>
+  <si>
+    <t>34 / 32</t>
   </si>
   <si>
     <t>week 50</t>
   </si>
   <si>
-    <t>Amusement Records / Island - 85.000</t>
-  </si>
-  <si>
-    <t>36 / 37</t>
-  </si>
-  <si>
-    <t>week 43</t>
-  </si>
-  <si>
-    <t>Big Hit Entertainment - 83.000</t>
-  </si>
-  <si>
-    <t>37 / 35</t>
-  </si>
-  <si>
-    <t>Island - 82.000</t>
+    <t>Bichota Records / Interscope - 86.000</t>
+  </si>
+  <si>
+    <t>40 / -</t>
+  </si>
+  <si>
+    <t>32 / 23</t>
+  </si>
+  <si>
+    <t>Rimas Entertainment - 85.000</t>
+  </si>
+  <si>
+    <t>Mystical Magical - Benson Boone</t>
+  </si>
+  <si>
+    <t>Night Street Records / Warner - 83.000</t>
+  </si>
+  <si>
+    <t>39 / 27</t>
+  </si>
+  <si>
+    <t>Big Loud / Republic - 82.000</t>
+  </si>
+  <si>
+    <t>No Tiene Sentido - Beéle</t>
+  </si>
+  <si>
+    <t>5020 Records - 82.000</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1213,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1332,7 +1262,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F420524A-963B-6966-53F6-25DBAE695D26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B67A3D0-41F2-F951-391D-E541122C9F20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,13 +1309,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1393,7 +1323,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54E26B0-A2DA-74BA-8FF5-8018DCDAF281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4216B109-05EB-190A-770B-CA35F89DB25D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1346,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="2697480"/>
+          <a:off x="1219200" y="1684020"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1440,13 +1370,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1454,7 +1384,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AD7AE8-5F91-212D-91E3-0BC8B143B626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E462E005-037B-6E73-6DC1-6BD6AFE5EE12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1407,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="4046220"/>
+          <a:off x="1219200" y="3200400"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1501,13 +1431,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1515,7 +1445,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F025FA-1425-0A36-28BC-732DFFBAE169}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1924A6-E432-BD03-AD57-BF940607E177}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1468,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="5730240"/>
+          <a:off x="1219200" y="4549140"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1576,7 +1506,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14018550-E944-4C33-45B9-EF648BF6CA5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044BBDC3-A89A-0F33-60E8-291CB9A76377}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1529,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="7589520"/>
+          <a:off x="1219200" y="8763000"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1623,13 +1553,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1637,7 +1567,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC248F06-170F-A03D-9D44-325A16F3E73B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF92A70-53F2-3A94-448F-1959D6BD166E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1590,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="8900160"/>
+          <a:off x="1219200" y="10454640"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1684,13 +1614,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1698,7 +1628,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0BE882-26AB-C117-F8A2-DE91D4DE43F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AABB19B2-4637-ED31-08CB-D06472E0DD26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1651,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="12443460"/>
+          <a:off x="1219200" y="11468100"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1745,13 +1675,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1759,7 +1689,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D66CBC-A3A4-A996-D3FD-10CA36B1D052}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAC8345-FD86-5530-79FE-E588A76F30E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1712,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="13792200"/>
+          <a:off x="1219200" y="12778740"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1820,7 +1750,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9193FF-842B-D5A9-31BF-818A0FDC9F17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FF4F9D-BD2C-01E6-5982-19DFC73DC633}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1843,7 +1773,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="17495520"/>
+          <a:off x="1219200" y="16992600"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1881,7 +1811,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60F5E37-5B79-E276-6643-79A0F84C54E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694C2EED-D852-E062-CE16-3296B4D306DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1834,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="19179540"/>
+          <a:off x="1219200" y="18341340"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1928,13 +1858,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1942,7 +1872,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6402896C-31EB-E816-E607-1B6E584FF72E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CB3BBA-F6AE-CF6C-FF70-C23024D40F8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1895,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="21877020"/>
+          <a:off x="1219200" y="19857720"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2003,7 +1933,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0951BB1-E092-166A-02EA-B364E678F807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63BF79C6-4D1B-0239-53C1-D54EF93CFAB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +1956,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="23225760"/>
+          <a:off x="1219200" y="22555200"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2050,13 +1980,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2064,7 +1994,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3485BF4-1E33-D3BB-0F6A-B8B71FD9F820}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C352C34B-DFA6-90D1-3EFA-B53BADC67913}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2017,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="29634180"/>
+          <a:off x="1219200" y="27104340"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2111,13 +2041,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2125,7 +2055,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D18E09-3D74-FC00-59AA-833AC18068AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142B2CF8-10E2-A9AC-652C-89E952586823}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2078,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="30815280"/>
+          <a:off x="1219200" y="28453080"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2172,6 +2102,67 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6EC04EB-529B-394B-4829-2EDBC1C5417B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="29801820"/>
+          <a:ext cx="137160" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2183,10 +2174,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
+        <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E2A904-5E09-5080-EE87-922EE14B6867}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CEE5D5-7348-77DC-BCF1-E6097FC55EE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,10 +2235,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
+        <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6C39E8-08A9-F069-EE15-FAB1ED3C6B72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD894131-B59E-1D66-44C7-049E070B340A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,21 +2285,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
+        <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C73107-BA08-E27C-E4AC-ACE95AC791A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A8E8DE-1B92-3C49-C7B5-452E6B024336}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2322,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="36042600"/>
+          <a:off x="1219200" y="38237160"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2355,21 +2346,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
+        <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C347D7D-29AE-D698-BAA4-CDECD78B4887}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CC92DC-6328-19E5-4810-1537D8A1BF56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2383,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="37223700"/>
+          <a:off x="1219200" y="39250620"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2416,21 +2407,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
+        <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F77E08-4BE0-463C-4ABA-701B27AFC917}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACC94C5-F60A-364A-A227-CC44B01674D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2444,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="40767000"/>
+          <a:off x="1219200" y="41612820"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2488,10 +2479,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
+        <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91862C0F-59D6-4713-FE58-6872ECDD243C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE19BCD-4064-A998-360A-13E3380397CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2505,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="44980860"/>
+          <a:off x="1219200" y="44142660"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2549,10 +2540,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21">
+        <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EEEAC8C-08DF-D65C-B837-9EBF9683C2B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D77CA8-E745-E73F-8A4F-0E174947BEB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,190 +2566,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="47175420"/>
-          <a:ext cx="137160" cy="99060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453E7593-AEC0-FA2F-A648-DAFE533DC05D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1219200" y="48524160"/>
-          <a:ext cx="137160" cy="99060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C80960-C654-D180-706F-84ABEA69424B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1219200" y="50208180"/>
-          <a:ext cx="137160" cy="99060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F58DB8-62E8-70EE-2B9A-09C888B2C1DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1219200" y="51221640"/>
+          <a:off x="1219200" y="46840140"/>
           <a:ext cx="137160" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3378,7 +3186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786B156E-EC95-4319-A3DE-F9AF4B590BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9AF843-9088-46F1-A1E7-ACDB22BD31A6}">
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3387,49 +3195,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="B1" s="6">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="D1" s="14" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="e" vm="2">
+    <row r="3" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="B3" s="7">
-        <v>45719</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45659</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="D4" s="15"/>
     </row>
@@ -3438,20 +3246,20 @@
         <v>#VALUE!</v>
       </c>
       <c r="B5" s="7">
-        <v>45690</v>
+        <v>45719</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D6" s="15"/>
     </row>
@@ -3463,19 +3271,17 @@
         <v>45751</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -3484,176 +3290,180 @@
         <v>#VALUE!</v>
       </c>
       <c r="B9" s="7">
-        <v>45844</v>
+        <v>45847</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="D9" s="14" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="B11" s="7">
-        <v>45784</v>
+      <c r="B11" s="13">
+        <v>41760</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
       <c r="B13" s="7">
-        <v>45816</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>45783</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="B15" s="7">
-        <v>45905</v>
+      <c r="B15" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="8" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="B17" s="12">
-        <v>41913</v>
+      <c r="B17" s="7">
+        <v>45815</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="B19" s="7">
-        <v>45878</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>13</v>
+        <v>45877</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>73</v>
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
       <c r="B21" s="7">
-        <v>45941</v>
+        <v>45910</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="B23" s="7">
-        <v>45973</v>
+      <c r="B23" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="D23" s="14" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="8" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="15"/>
     </row>
@@ -3662,252 +3472,244 @@
         <v>#VALUE!</v>
       </c>
       <c r="B25" s="7">
-        <v>46004</v>
+        <v>45974</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>46</v>
+      <c r="B27" s="7">
+        <v>46002</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="8" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="8" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="D33" s="14" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="8" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
+      <c r="B35" s="7">
+        <v>45944</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15"/>
       <c r="B36" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>85</v>
+        <v>48</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="14" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>87</v>
+        <v>13</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>88</v>
+      <c r="B39" s="14" t="e" vm="22">
+        <v>#VALUE!</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="D39" s="14" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
-      <c r="B40" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="B40" s="15"/>
       <c r="C40" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="e" vm="22">
+      <c r="A41" s="14" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15"/>
       <c r="B42" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="15"/>
+      <c r="B44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="e" vm="23">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B43" s="14" t="e" vm="24">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="C45" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="93" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="e" vm="25">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>2</v>
-      </c>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>96</v>
+        <v>33</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D46" s="15"/>
     </row>
@@ -3916,22 +3718,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="D47" s="14" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
       <c r="B48" s="8" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D48" s="15"/>
     </row>
@@ -3940,66 +3742,64 @@
         <v>#VALUE!</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15"/>
       <c r="B50" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D50" s="15"/>
     </row>
-    <row r="51" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
       <c r="B52" s="8" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D52" s="15"/>
     </row>
-    <row r="53" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="15"/>
       <c r="B54" s="8" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D54" s="15"/>
     </row>
@@ -4007,21 +3807,21 @@
       <c r="A55" s="14" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="14"/>
+      <c r="B55" s="14" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="14" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15"/>
-      <c r="B56" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>109</v>
+      <c r="B56" s="15"/>
+      <c r="C56" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D56" s="15"/>
     </row>
@@ -4030,44 +3830,42 @@
         <v>#VALUE!</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15"/>
       <c r="B58" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D58" s="15"/>
     </row>
-    <row r="59" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
       <c r="B60" s="8" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D60" s="15"/>
     </row>
@@ -4076,44 +3874,42 @@
         <v>#VALUE!</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D61" s="14"/>
     </row>
-    <row r="62" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
       <c r="B62" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D62" s="15"/>
     </row>
-    <row r="63" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="15"/>
       <c r="B64" s="8" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="D64" s="15"/>
     </row>
@@ -4121,21 +3917,21 @@
       <c r="A65" s="14" t="e" vm="35">
         <v>#VALUE!</v>
       </c>
-      <c r="B65" s="14" t="e" vm="24">
-        <v>#VALUE!</v>
+      <c r="B65" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="C66" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D66" s="15"/>
     </row>
@@ -4143,45 +3939,43 @@
       <c r="A67" s="14" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>121</v>
+      <c r="B67" s="14" t="e" vm="22">
+        <v>#VALUE!</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="14"/>
-    </row>
-    <row r="68" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="D67" s="14" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="15"/>
-      <c r="B68" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="B68" s="15"/>
       <c r="C68" s="10" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="D68" s="15"/>
     </row>
-    <row r="69" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15"/>
       <c r="B70" s="8" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D70" s="15"/>
     </row>
@@ -4190,129 +3984,130 @@
         <v>#VALUE!</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D71" s="14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="15"/>
       <c r="B72" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>124</v>
+        <v>4</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="D72" s="15"/>
     </row>
-    <row r="73" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D73" s="14"/>
     </row>
-    <row r="74" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="15"/>
       <c r="B74" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>126</v>
+        <v>33</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D74" s="15"/>
     </row>
-    <row r="75" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="e" vm="40">
         <v>#VALUE!</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>127</v>
+      <c r="B75" s="14" t="e" vm="22">
+        <v>#VALUE!</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="14"/>
+        <v>124</v>
+      </c>
+      <c r="D75" s="14" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="15"/>
-      <c r="B76" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="B76" s="15"/>
       <c r="C76" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D76" s="15"/>
     </row>
-    <row r="77" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="e" vm="41">
         <v>#VALUE!</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="15"/>
       <c r="B78" s="8" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D78" s="15"/>
     </row>
-    <row r="79" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>133</v>
+      <c r="B79" s="14" t="e" vm="22">
+        <v>#VALUE!</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="14"/>
-    </row>
-    <row r="80" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="D79" s="14" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="15"/>
-      <c r="B80" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="B80" s="15"/>
       <c r="C80" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D80" s="15"/>
     </row>
     <row r="82" spans="1:1" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
-        <v>58</v>
+      <c r="A82" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="85">
     <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
     <mergeCell ref="D79:D80"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
     <mergeCell ref="D75:D76"/>
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="D77:D78"/>
     <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="D69:D70"/>
@@ -4323,9 +4118,9 @@
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="D57:D58"/>
@@ -4338,7 +4133,6 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="D45:D46"/>
@@ -4347,6 +4141,7 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="D41:D42"/>
